--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3251.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3251.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.921948196184889</v>
+        <v>0.2845399081707001</v>
       </c>
       <c r="B1">
-        <v>2.108206568575281</v>
+        <v>0.2194613963365555</v>
       </c>
       <c r="C1">
-        <v>2.226311327265269</v>
+        <v>0.1882201135158539</v>
       </c>
       <c r="D1">
-        <v>3.033114382000796</v>
+        <v>0.1990492194890976</v>
       </c>
       <c r="E1">
-        <v>2.515956976708009</v>
+        <v>0.2361022680997849</v>
       </c>
     </row>
   </sheetData>
